--- a/output/KAPITALO_12105992000109.xlsx
+++ b/output/KAPITALO_12105992000109.xlsx
@@ -1747,10 +1747,10 @@
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>2.8470884</v>
+        <v>2.8325166</v>
       </c>
       <c r="C124">
-        <v>0.03828996950730912</v>
+        <v>0.0343571891278236</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_12105992000109.xlsx
+++ b/output/KAPITALO_12105992000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO ZETA FUNDO DE INVESTIMENTO EM QUOTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1371 +383,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40451</v>
       </c>
       <c r="B2">
-        <v>-0.009081499999999965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40482</v>
       </c>
       <c r="B3">
-        <v>-0.0002613999999999672</v>
-      </c>
-      <c r="C3">
         <v>0.008900933830582325</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40512</v>
       </c>
       <c r="B4">
-        <v>0.02946139999999997</v>
-      </c>
-      <c r="C4">
         <v>0.02973057157140868</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
       <c r="B5">
-        <v>0.05931670000000011</v>
-      </c>
-      <c r="C5">
         <v>0.02900089308836651</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40574</v>
       </c>
       <c r="B6">
-        <v>0.08343509999999998</v>
-      </c>
-      <c r="C6">
         <v>0.02276788424085052</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40602</v>
       </c>
       <c r="B7">
-        <v>0.08163180000000003</v>
-      </c>
-      <c r="C7">
         <v>-0.001664428261554329</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40633</v>
       </c>
       <c r="B8">
-        <v>0.03751679999999991</v>
-      </c>
-      <c r="C8">
         <v>-0.04078559820449079</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40663</v>
       </c>
       <c r="B9">
-        <v>0.04609740000000007</v>
-      </c>
-      <c r="C9">
         <v>0.008270323911863553</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40694</v>
       </c>
       <c r="B10">
-        <v>0.05388609999999994</v>
-      </c>
-      <c r="C10">
         <v>0.007445482609936604</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40724</v>
       </c>
       <c r="B11">
-        <v>0.05798269999999994</v>
-      </c>
-      <c r="C11">
         <v>0.003887137329166901</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40755</v>
       </c>
       <c r="B12">
-        <v>0.0460427000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.01128562877256867</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40786</v>
       </c>
       <c r="B13">
-        <v>0.04373629999999995</v>
-      </c>
-      <c r="C13">
         <v>-0.002204881311250628</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40816</v>
       </c>
       <c r="B14">
-        <v>0.04911189999999999</v>
-      </c>
-      <c r="C14">
         <v>0.005150343051209427</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40847</v>
       </c>
       <c r="B15">
-        <v>0.0759862</v>
-      </c>
-      <c r="C15">
         <v>0.02561623788654011</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40877</v>
       </c>
       <c r="B16">
-        <v>0.08367609999999992</v>
-      </c>
-      <c r="C16">
         <v>0.007146838872096994</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40908</v>
       </c>
       <c r="B17">
-        <v>0.04115209999999991</v>
-      </c>
-      <c r="C17">
         <v>-0.03924050738038798</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40939</v>
       </c>
       <c r="B18">
-        <v>0.1319075999999999</v>
-      </c>
-      <c r="C18">
         <v>0.08716833976515059</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40968</v>
       </c>
       <c r="B19">
-        <v>0.1779789000000001</v>
-      </c>
-      <c r="C19">
         <v>0.04070235061589855</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40999</v>
       </c>
       <c r="B20">
-        <v>0.1685154</v>
-      </c>
-      <c r="C20">
         <v>-0.008033675306068799</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41029</v>
       </c>
       <c r="B21">
-        <v>0.1505118000000001</v>
-      </c>
-      <c r="C21">
         <v>-0.01540724238636471</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41060</v>
       </c>
       <c r="B22">
-        <v>0.08887479999999992</v>
-      </c>
-      <c r="C22">
         <v>-0.05357354874587128</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41090</v>
       </c>
       <c r="B23">
-        <v>0.1719108</v>
-      </c>
-      <c r="C23">
         <v>0.07625853771250846</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41121</v>
       </c>
       <c r="B24">
-        <v>0.1664764999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.004637127672174501</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41152</v>
       </c>
       <c r="B25">
-        <v>0.1952883000000001</v>
-      </c>
-      <c r="C25">
         <v>0.02469985464773639</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41182</v>
       </c>
       <c r="B26">
-        <v>0.2524740000000001</v>
-      </c>
-      <c r="C26">
         <v>0.04784259998194584</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41213</v>
       </c>
       <c r="B27">
-        <v>0.2727895</v>
-      </c>
-      <c r="C27">
         <v>0.01622029678859604</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41243</v>
       </c>
       <c r="B28">
-        <v>0.2771870000000001</v>
-      </c>
-      <c r="C28">
         <v>0.003455009646135654</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41274</v>
       </c>
       <c r="B29">
-        <v>0.3120642</v>
-      </c>
-      <c r="C29">
         <v>0.02730782571385393</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41305</v>
       </c>
       <c r="B30">
-        <v>0.3649836</v>
-      </c>
-      <c r="C30">
         <v>0.04033293492803169</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41333</v>
       </c>
       <c r="B31">
-        <v>0.3555820000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.006887701800959323</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41364</v>
       </c>
       <c r="B32">
-        <v>0.3999143000000001</v>
-      </c>
-      <c r="C32">
         <v>0.03270351775104707</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41394</v>
       </c>
       <c r="B33">
-        <v>0.4040979</v>
-      </c>
-      <c r="C33">
         <v>0.002988468651259568</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41425</v>
       </c>
       <c r="B34">
-        <v>0.4185394</v>
-      </c>
-      <c r="C34">
         <v>0.01028525147712278</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41455</v>
       </c>
       <c r="B35">
-        <v>0.3767585</v>
-      </c>
-      <c r="C35">
         <v>-0.02945346459886844</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41486</v>
       </c>
       <c r="B36">
-        <v>0.4328148000000001</v>
-      </c>
-      <c r="C36">
         <v>0.04071614593263817</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41517</v>
       </c>
       <c r="B37">
-        <v>0.3555907</v>
-      </c>
-      <c r="C37">
         <v>-0.05389677716896835</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41547</v>
       </c>
       <c r="B38">
-        <v>0.3965681999999999</v>
-      </c>
-      <c r="C38">
         <v>0.03022851956715256</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41578</v>
       </c>
       <c r="B39">
-        <v>0.4070482</v>
-      </c>
-      <c r="C39">
         <v>0.0075041090009067</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41608</v>
       </c>
       <c r="B40">
-        <v>0.4435245000000001</v>
-      </c>
-      <c r="C40">
         <v>0.02592398753646119</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41639</v>
       </c>
       <c r="B41">
-        <v>0.5203483</v>
-      </c>
-      <c r="C41">
         <v>0.05321960243833757</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41670</v>
       </c>
       <c r="B42">
-        <v>0.5376186999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01135950229299421</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41698</v>
       </c>
       <c r="B43">
-        <v>0.5868445</v>
-      </c>
-      <c r="C43">
         <v>0.03201430887904788</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41729</v>
       </c>
       <c r="B44">
-        <v>0.5855855999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.0007933354528437686</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41759</v>
       </c>
       <c r="B45">
-        <v>0.605486</v>
-      </c>
-      <c r="C45">
         <v>0.01255082034044719</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41790</v>
       </c>
       <c r="B46">
-        <v>0.6413154000000001</v>
-      </c>
-      <c r="C46">
         <v>0.02231685607971667</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41820</v>
       </c>
       <c r="B47">
-        <v>0.6707848999999999</v>
-      </c>
-      <c r="C47">
         <v>0.01795480624869539</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41851</v>
       </c>
       <c r="B48">
-        <v>0.7160681</v>
-      </c>
-      <c r="C48">
         <v>0.02710295023614351</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41882</v>
       </c>
       <c r="B49">
-        <v>0.7816920999999999</v>
-      </c>
-      <c r="C49">
         <v>0.03824090664001023</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41912</v>
       </c>
       <c r="B50">
-        <v>0.6761594</v>
-      </c>
-      <c r="C50">
         <v>-0.05923172696337375</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41943</v>
       </c>
       <c r="B51">
-        <v>0.6659397</v>
-      </c>
-      <c r="C51">
         <v>-0.006097093152357624</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41973</v>
       </c>
       <c r="B52">
-        <v>0.6378499</v>
-      </c>
-      <c r="C52">
         <v>-0.01686123453327881</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42004</v>
       </c>
       <c r="B53">
-        <v>0.6405638</v>
-      </c>
-      <c r="C53">
         <v>0.001656989446957358</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42035</v>
       </c>
       <c r="B54">
-        <v>0.6933081999999999</v>
-      </c>
-      <c r="C54">
         <v>0.03215016691213091</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42063</v>
       </c>
       <c r="B55">
-        <v>0.7565215000000001</v>
-      </c>
-      <c r="C55">
         <v>0.03733124306608815</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42094</v>
       </c>
       <c r="B56">
-        <v>0.7669790000000001</v>
-      </c>
-      <c r="C56">
         <v>0.005953528038227907</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42124</v>
       </c>
       <c r="B57">
-        <v>0.7419475</v>
-      </c>
-      <c r="C57">
         <v>-0.01416626909544483</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42155</v>
       </c>
       <c r="B58">
-        <v>0.8282528</v>
-      </c>
-      <c r="C58">
         <v>0.04954529341441116</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
       <c r="B59">
-        <v>0.7648515</v>
-      </c>
-      <c r="C59">
         <v>-0.03467862868854898</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42216</v>
       </c>
       <c r="B60">
-        <v>0.8828012000000001</v>
-      </c>
-      <c r="C60">
         <v>0.0668326485259525</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42247</v>
       </c>
       <c r="B61">
-        <v>0.8152936</v>
-      </c>
-      <c r="C61">
         <v>-0.03585487410991672</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42277</v>
       </c>
       <c r="B62">
-        <v>0.7533582000000001</v>
-      </c>
-      <c r="C62">
         <v>-0.03411866818678799</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42308</v>
       </c>
       <c r="B63">
-        <v>0.7284701</v>
-      </c>
-      <c r="C63">
         <v>-0.01419453252621172</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42338</v>
       </c>
       <c r="B64">
-        <v>0.8795614</v>
-      </c>
-      <c r="C64">
         <v>0.08741331423667664</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42369</v>
       </c>
       <c r="B65">
-        <v>0.9075499</v>
-      </c>
-      <c r="C65">
         <v>0.0148909740325589</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42400</v>
       </c>
       <c r="B66">
-        <v>1.0406194</v>
-      </c>
-      <c r="C66">
         <v>0.06975938086862121</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42429</v>
       </c>
       <c r="B67">
-        <v>1.0177947</v>
-      </c>
-      <c r="C67">
         <v>-0.01118518230298127</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42460</v>
       </c>
       <c r="B68">
-        <v>1.0010614</v>
-      </c>
-      <c r="C68">
         <v>-0.008292865473380373</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42490</v>
       </c>
       <c r="B69">
-        <v>1.1068875</v>
-      </c>
-      <c r="C69">
         <v>0.05288498393902352</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42521</v>
       </c>
       <c r="B70">
-        <v>1.1019764</v>
-      </c>
-      <c r="C70">
         <v>-0.002330974007867082</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42551</v>
       </c>
       <c r="B71">
-        <v>1.190079</v>
-      </c>
-      <c r="C71">
         <v>0.04191417182419377</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42582</v>
       </c>
       <c r="B72">
-        <v>1.2254801</v>
-      </c>
-      <c r="C72">
         <v>0.01616430274889624</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42613</v>
       </c>
       <c r="B73">
-        <v>1.311886</v>
-      </c>
-      <c r="C73">
         <v>0.03882573472573392</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42643</v>
       </c>
       <c r="B74">
-        <v>1.3567171</v>
-      </c>
-      <c r="C74">
         <v>0.01939157034559669</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42674</v>
       </c>
       <c r="B75">
-        <v>1.5021671</v>
-      </c>
-      <c r="C75">
         <v>0.06171720823004168</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42704</v>
       </c>
       <c r="B76">
-        <v>1.4952412</v>
-      </c>
-      <c r="C76">
         <v>-0.002767960621015142</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42735</v>
       </c>
       <c r="B77">
-        <v>1.5732858</v>
-      </c>
-      <c r="C77">
         <v>0.03127737711288181</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42766</v>
       </c>
       <c r="B78">
-        <v>1.705162</v>
-      </c>
-      <c r="C78">
         <v>0.05124817461006481</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42794</v>
       </c>
       <c r="B79">
-        <v>1.8053709</v>
-      </c>
-      <c r="C79">
         <v>0.03704358555975573</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42825</v>
       </c>
       <c r="B80">
-        <v>1.84007</v>
-      </c>
-      <c r="C80">
         <v>0.0123688101277446</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42855</v>
       </c>
       <c r="B81">
-        <v>1.8046997</v>
-      </c>
-      <c r="C81">
         <v>-0.01245402402053464</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42886</v>
       </c>
       <c r="B82">
-        <v>1.741048</v>
-      </c>
-      <c r="C82">
         <v>-0.02269465782736024</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42916</v>
       </c>
       <c r="B83">
-        <v>1.8191689</v>
-      </c>
-      <c r="C83">
         <v>0.02850037649833204</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42947</v>
       </c>
       <c r="B84">
-        <v>1.9484591</v>
-      </c>
-      <c r="C84">
         <v>0.04586110466811677</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42978</v>
       </c>
       <c r="B85">
-        <v>1.9956785</v>
-      </c>
-      <c r="C85">
         <v>0.01601494149944283</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43008</v>
       </c>
       <c r="B86">
-        <v>2.1177747</v>
-      </c>
-      <c r="C86">
         <v>0.04075744443203777</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43039</v>
       </c>
       <c r="B87">
-        <v>2.0837444</v>
-      </c>
-      <c r="C87">
         <v>-0.01091493237147634</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43069</v>
       </c>
       <c r="B88">
-        <v>2.0720473</v>
-      </c>
-      <c r="C88">
         <v>-0.003793148355616061</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43100</v>
       </c>
       <c r="B89">
-        <v>2.0853609</v>
-      </c>
-      <c r="C89">
         <v>0.004333787438754566</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43131</v>
       </c>
       <c r="B90">
-        <v>2.2462456</v>
-      </c>
-      <c r="C90">
         <v>0.05214453194114177</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43159</v>
       </c>
       <c r="B91">
-        <v>2.3453839</v>
-      </c>
-      <c r="C91">
         <v>0.03053937138952145</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43190</v>
       </c>
       <c r="B92">
-        <v>2.4690883</v>
-      </c>
-      <c r="C92">
         <v>0.03697763954683952</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43220</v>
       </c>
       <c r="B93">
-        <v>2.5684741</v>
-      </c>
-      <c r="C93">
         <v>0.02864896808766715</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43251</v>
       </c>
       <c r="B94">
-        <v>2.4647573</v>
-      </c>
-      <c r="C94">
         <v>-0.0290647478708056</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43281</v>
       </c>
       <c r="B95">
-        <v>2.5534469</v>
-      </c>
-      <c r="C95">
         <v>0.02559763709856377</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43312</v>
       </c>
       <c r="B96">
-        <v>2.6113416</v>
-      </c>
-      <c r="C96">
         <v>0.01629254682263581</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43343</v>
       </c>
       <c r="B97">
-        <v>2.6005262</v>
-      </c>
-      <c r="C97">
         <v>-0.002994842692255917</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43373</v>
       </c>
       <c r="B98">
-        <v>2.6864351</v>
-      </c>
-      <c r="C98">
         <v>0.02386009578266646</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43404</v>
       </c>
       <c r="B99">
-        <v>2.8098059</v>
-      </c>
-      <c r="C99">
         <v>0.0334661527067166</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43434</v>
       </c>
       <c r="B100">
-        <v>2.7097698</v>
-      </c>
-      <c r="C100">
         <v>-0.02625753191258384</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43465</v>
       </c>
       <c r="B101">
-        <v>2.6363106</v>
-      </c>
-      <c r="C101">
         <v>-0.01980155210708767</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43496</v>
       </c>
       <c r="B102">
-        <v>2.7966681</v>
-      </c>
-      <c r="C102">
         <v>0.04409895568326871</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43524</v>
       </c>
       <c r="B103">
-        <v>2.8259413</v>
-      </c>
-      <c r="C103">
         <v>0.007710234139244321</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43555</v>
       </c>
       <c r="B104">
-        <v>2.8175144</v>
-      </c>
-      <c r="C104">
         <v>-0.002202569077575878</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43585</v>
       </c>
       <c r="B105">
-        <v>2.8122227</v>
-      </c>
-      <c r="C105">
         <v>-0.001386163729991452</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43616</v>
       </c>
       <c r="B106">
-        <v>2.7928256</v>
-      </c>
-      <c r="C106">
         <v>-0.005088134016934531</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43646</v>
       </c>
       <c r="B107">
-        <v>2.9440007</v>
-      </c>
-      <c r="C107">
         <v>0.03985817328379149</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43677</v>
       </c>
       <c r="B108">
-        <v>2.9125268</v>
-      </c>
-      <c r="C108">
         <v>-0.007980196352399216</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43708</v>
       </c>
       <c r="B109">
-        <v>2.9194342</v>
-      </c>
-      <c r="C109">
         <v>0.001765457555459982</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43738</v>
       </c>
       <c r="B110">
-        <v>2.966524</v>
-      </c>
-      <c r="C110">
         <v>0.01201443820641268</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43769</v>
       </c>
       <c r="B111">
-        <v>3.0843029</v>
-      </c>
-      <c r="C111">
         <v>0.02969322762196813</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43799</v>
       </c>
       <c r="B112">
-        <v>3.078558</v>
-      </c>
-      <c r="C112">
         <v>-0.001406580300398308</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43830</v>
       </c>
       <c r="B113">
-        <v>3.2084946</v>
-      </c>
-      <c r="C113">
         <v>0.03185846566359962</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43861</v>
       </c>
       <c r="B114">
-        <v>3.1208195</v>
-      </c>
-      <c r="C114">
         <v>-0.02083288879591294</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43890</v>
       </c>
       <c r="B115">
-        <v>2.9986372</v>
-      </c>
-      <c r="C115">
         <v>-0.02965000044287291</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43921</v>
       </c>
       <c r="B116">
-        <v>2.5659015</v>
-      </c>
-      <c r="C116">
         <v>-0.1082207958251377</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43951</v>
       </c>
       <c r="B117">
-        <v>2.6389704</v>
-      </c>
-      <c r="C117">
         <v>0.02049100346714572</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43982</v>
       </c>
       <c r="B118">
-        <v>2.7285453</v>
-      </c>
-      <c r="C118">
         <v>0.02461545166731782</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44012</v>
       </c>
       <c r="B119">
-        <v>2.7182818</v>
-      </c>
-      <c r="C119">
         <v>-0.002752682125117256</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44043</v>
       </c>
       <c r="B120">
-        <v>2.8259809</v>
-      </c>
-      <c r="C120">
         <v>0.02896474925595993</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44074</v>
       </c>
       <c r="B121">
-        <v>2.859456</v>
-      </c>
-      <c r="C121">
         <v>0.008749416391493403</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>44104</v>
       </c>
       <c r="B122">
-        <v>2.7356231</v>
-      </c>
-      <c r="C122">
         <v>-0.03208558408231632</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44135</v>
       </c>
       <c r="B123">
-        <v>2.7052158</v>
-      </c>
-      <c r="C123">
         <v>-0.008139820101230266</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>2.8325166</v>
-      </c>
-      <c r="C124">
-        <v>0.0343571891278236</v>
+        <v>0.02413503148723484</v>
       </c>
     </row>
   </sheetData>
